--- a/abbreviations_symbols_list_template.xlsx
+++ b/abbreviations_symbols_list_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/sethv_ad_unc_edu/Documents/6th_year_24-25/dissertation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85cb32c1384fb64c/Documents/GitHub/UNC_grad_school_dissertation_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{9BD8BFE1-6C64-4ED7-BF1C-8A69D5AFA2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{518579B4-A44C-45C1-8A9B-A2BBEABA4128}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{9BD8BFE1-6C64-4ED7-BF1C-8A69D5AFA2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70503054-5D7E-49B6-AD8E-C8B2759B357E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AD3158E2-919F-4571-B12E-585B1D46CCAB}"/>
+    <workbookView minimized="1" xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15345" xr2:uid="{AD3158E2-919F-4571-B12E-585B1D46CCAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Abbrev. Symbols table" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="458">
   <si>
     <t>Newton</t>
   </si>
@@ -1677,6 +1677,15 @@
       </rPr>
       <t>M</t>
     </r>
+  </si>
+  <si>
+    <t>HDO</t>
+  </si>
+  <si>
+    <t>heme oxygenase-like domain containing oxidase</t>
+  </si>
+  <si>
+    <t>ACN</t>
   </si>
 </sst>
 </file>
@@ -1848,8 +1857,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1922,6 +1929,8 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1981,7 +1990,7 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3FA39A7E-A7F2-48D2-87E9-5A9DBC980E24}" name="Add a case-sensitive abbrev. or symbol. When finished use the drop-down arrow in this cell to sort A to Z." dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{191612BF-276F-4DDE-954A-66079D476CA1}" name="A description will be auto-populated from the dictionary sheet. If a description is not found, add a row in the dictionary sheet or manually type a description on this sheet." dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{191612BF-276F-4DDE-954A-66079D476CA1}" name="A description will be auto-populated from the dictionary sheet. If a description is not found, add a row in the dictionary sheet or manually type a description on this sheet." dataDxfId="4">
       <calculatedColumnFormula array="1">VLOOKUP(TRUE, CHOOSE({1,2}, EXACT(A2, Dictionary!A:A), Dictionary!B:B),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1990,14 +1999,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A60C3E4-C4AE-4CA9-A3A5-CABA621485A0}" name="Table1" displayName="Table1" ref="A1:B230" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:B230" xr:uid="{4A60C3E4-C4AE-4CA9-A3A5-CABA621485A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A60C3E4-C4AE-4CA9-A3A5-CABA621485A0}" name="Table1" displayName="Table1" ref="A1:B232" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B232" xr:uid="{4A60C3E4-C4AE-4CA9-A3A5-CABA621485A0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B230">
     <sortCondition ref="A1:A230"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A5DC6ECE-F053-43FB-909E-958BD598769B}" name="Characters" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{2A8DA29A-315B-4D9F-A673-88666C07A1D3}" name="Description" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A5DC6ECE-F053-43FB-909E-958BD598769B}" name="Characters" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{2A8DA29A-315B-4D9F-A673-88666C07A1D3}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2323,7 +2332,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,7 +2341,7 @@
     <col min="2" max="2" width="72.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>453</v>
       </c>
@@ -2359,78 +2368,93 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>321</v>
+      <c r="A4" s="12" t="s">
+        <v>436</v>
       </c>
       <c r="B4" s="2" t="str" cm="1">
         <f t="array" ref="B4">VLOOKUP(TRUE, CHOOSE({1,2}, EXACT(A4, Dictionary!A:A), Dictionary!B:B),2,FALSE)</f>
-        <v>gram</v>
+        <v>micrometer</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="B5" s="2" t="str" cm="1">
         <f t="array" ref="B5">VLOOKUP(TRUE, CHOOSE({1,2}, EXACT(A5, Dictionary!A:A), Dictionary!B:B),2,FALSE)</f>
-        <v>Kelvin</v>
+        <v>micromolar</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>436</v>
+      <c r="A6" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="B6" s="2" t="str" cm="1">
         <f t="array" ref="B6">VLOOKUP(TRUE, CHOOSE({1,2}, EXACT(A6, Dictionary!A:A), Dictionary!B:B),2,FALSE)</f>
-        <v>micrometer</v>
+        <v>acetonitrile</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>454</v>
+        <v>368</v>
       </c>
       <c r="B7" s="2" t="str" cm="1">
         <f t="array" ref="B7">VLOOKUP(TRUE, CHOOSE({1,2}, EXACT(A7, Dictionary!A:A), Dictionary!B:B),2,FALSE)</f>
-        <v>micromolar</v>
+        <v>N-N-dimethylformamide</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B8" s="2" t="str" cm="1">
         <f t="array" ref="B8">VLOOKUP(TRUE, CHOOSE({1,2}, EXACT(A8, Dictionary!A:A), Dictionary!B:B),2,FALSE)</f>
-        <v>N-N-dimethylformamide</v>
+        <v>dimethyl sulfoxide</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" cm="1">
+      <c r="A9" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="2" t="str" cm="1">
         <f t="array" ref="B9">VLOOKUP(TRUE, CHOOSE({1,2}, EXACT(A9, Dictionary!A:A), Dictionary!B:B),2,FALSE)</f>
-        <v>0</v>
+        <v>gram</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" cm="1">
+      <c r="A10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="2" t="str" cm="1">
         <f t="array" ref="B10">VLOOKUP(TRUE, CHOOSE({1,2}, EXACT(A10, Dictionary!A:A), Dictionary!B:B),2,FALSE)</f>
-        <v>0</v>
+        <v>Kelvin</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" cm="1">
+      <c r="A11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="2" t="str" cm="1">
         <f t="array" ref="B11">VLOOKUP(TRUE, CHOOSE({1,2}, EXACT(A11, Dictionary!A:A), Dictionary!B:B),2,FALSE)</f>
-        <v>0</v>
+        <v>molar concentration</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" cm="1">
+      <c r="A12" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="2" t="str" cm="1">
         <f t="array" ref="B12">VLOOKUP(TRUE, CHOOSE({1,2}, EXACT(A12, Dictionary!A:A), Dictionary!B:B),2,FALSE)</f>
-        <v>0</v>
+        <v>gram</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" cm="1">
+      <c r="A13" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B13" s="2" t="str" cm="1">
         <f t="array" ref="B13">VLOOKUP(TRUE, CHOOSE({1,2}, EXACT(A13, Dictionary!A:A), Dictionary!B:B),2,FALSE)</f>
-        <v>0</v>
+        <v>percent</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3871,10 +3895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC638715-4868-46D5-9235-EB84D25F1B9A}">
-  <dimension ref="A1:B230"/>
+  <dimension ref="A1:B232"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5723,6 +5747,22 @@
         <v>56</v>
       </c>
     </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
